--- a/tables/2023-01/regional_table_Jan.xlsx
+++ b/tables/2023-01/regional_table_Jan.xlsx
@@ -12,14 +12,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>Population size</t>
   </si>
   <si>
+    <t>Confirmed cases</t>
+  </si>
+  <si>
+    <t>Number of tests (PCR and antigen)</t>
+  </si>
+  <si>
+    <t>Incidence of tests (per 100,000)</t>
+  </si>
+  <si>
+    <t>Test positivity (%)</t>
+  </si>
+  <si>
     <t>Sequenced samples</t>
   </si>
   <si>
+    <t>Proportion sequenced (%)</t>
+  </si>
+  <si>
     <t>Omicron (BA.4)</t>
   </si>
   <si>
@@ -81,6 +96,48 @@
   </si>
   <si>
     <t>Region 6</t>
+  </si>
+  <si>
+    <t>11.47</t>
+  </si>
+  <si>
+    <t>9.49</t>
+  </si>
+  <si>
+    <t>9.56</t>
+  </si>
+  <si>
+    <t>13.78</t>
+  </si>
+  <si>
+    <t>12.06</t>
+  </si>
+  <si>
+    <t>12.36</t>
+  </si>
+  <si>
+    <t>13.62</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>14.8</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>8.4</t>
   </si>
   <si>
     <t>0.4 (0.0-2.3)</t>
@@ -256,376 +313,496 @@
       <c r="Q1" t="s">
         <v>15</v>
       </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B2" t="n">
         <v>8738791.0</v>
       </c>
       <c r="C2" t="n">
+        <v>3108.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>37464.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>429.0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="n">
         <v>238.0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="n">
         <v>1.0</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="n">
         <v>19.0</v>
       </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.0</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="n">
         <v>123.0</v>
       </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" t="n">
         <v>5.0</v>
       </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="R2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" t="n">
         <v>31.0</v>
       </c>
-      <c r="O2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="T2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" t="n">
         <v>58.0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>44</v>
+      <c r="V2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B3" t="n">
         <v>1861791.0</v>
       </c>
       <c r="C3" t="n">
+        <v>723.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11321.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>608.0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="n">
         <v>107.0</v>
       </c>
-      <c r="D3" t="n">
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="n">
         <v>1.0</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="n">
         <v>6.0</v>
       </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" t="n">
         <v>52.0</v>
       </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" t="n">
         <v>25.0</v>
       </c>
-      <c r="O3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="T3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" t="n">
         <v>23.0</v>
       </c>
-      <c r="Q3" t="s">
-        <v>45</v>
+      <c r="V3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B4" t="n">
         <v>1451080.0</v>
       </c>
       <c r="C4" t="n">
+        <v>391.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5188.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>358.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="n">
         <v>29.0</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.0</v>
       </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="n">
         <v>20.0</v>
       </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="P4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" t="n">
         <v>6.0</v>
       </c>
-      <c r="Q4" t="s">
-        <v>46</v>
+      <c r="V4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B5" t="n">
         <v>1472184.0</v>
       </c>
       <c r="C5" t="n">
+        <v>574.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5851.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>397.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="n">
         <v>37.0</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.0</v>
       </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" t="n">
         <v>1.0</v>
       </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" t="n">
         <v>15.0</v>
       </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="P5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.0</v>
       </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="R5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.0</v>
       </c>
-      <c r="O5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="T5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" t="n">
         <v>15.0</v>
       </c>
-      <c r="Q5" t="s">
-        <v>35</v>
+      <c r="V5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
         <v>833178.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>192.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>25</v>
+        <v>2098.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B7" t="n">
         <v>2567001.0</v>
       </c>
       <c r="C7" t="n">
+        <v>790.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8293.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="n">
         <v>25.0</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="n">
         <v>5.0</v>
       </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" t="n">
         <v>12.0</v>
       </c>
-      <c r="K7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="P7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" t="n">
         <v>2.0</v>
       </c>
-      <c r="M7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="R7" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.0</v>
       </c>
-      <c r="O7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" t="n">
+      <c r="T7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U7" t="n">
         <v>5.0</v>
       </c>
-      <c r="Q7" t="s">
-        <v>30</v>
+      <c r="V7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B8" t="n">
         <v>553557.0</v>
       </c>
       <c r="C8" t="n">
+        <v>438.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4713.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>851.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="n">
         <v>37.0</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="n">
         <v>1.0</v>
       </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" t="n">
         <v>24.0</v>
       </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="P8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2.0</v>
       </c>
-      <c r="M8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="R8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.0</v>
       </c>
-      <c r="O8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="T8" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" t="n">
         <v>9.0</v>
       </c>
-      <c r="Q8" t="s">
-        <v>47</v>
+      <c r="V8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
